--- a/data/trans_bre/P44-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P44-Habitat-trans_bre.xlsx
@@ -557,7 +557,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -572,7 +572,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -594,7 +594,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -674,7 +674,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -754,7 +754,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -834,7 +834,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">

--- a/data/trans_bre/P44-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P44-Habitat-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -604,32 +604,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,99</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,37</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,99</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>50,78%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-35,22%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,44%</t>
         </is>
       </c>
     </row>
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>-5,95; 11,63</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>-17,72; 8,24</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>-15,53; 10,83</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-81,23; 108,19</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-43,25; 62,61</t>
         </is>
       </c>
     </row>
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,69</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,53</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,89</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-11,48%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-15,5%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-9,13%</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,42; 3,36</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,15; 3,47</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,73; 3,78</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-60,12; 97,11</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-55,88; 56,35</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,91; 14,29</t>
         </is>
       </c>
     </row>
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,85</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,52</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-12,9</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,93%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-25,39%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-30,12%</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,33; 5,48</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,31; 1,26</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,97; -3,83</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,5; 95,11</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-52,6; 17,7</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-53,3; -11,27</t>
         </is>
       </c>
     </row>
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,63</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,67</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-15,01</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-22,56%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-40,59%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-45,19%</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,3; 2,91</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,59; 0,14</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,88; -6,99</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-56,53; 39,97</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-66,62; 3,9</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-75,92; -21,96</t>
         </is>
       </c>
     </row>
@@ -924,32 +924,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,65</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,19</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,59</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-47,8%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-49,93%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-19,93%</t>
         </is>
       </c>
     </row>
@@ -962,32 +962,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,62; -1,58</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,47; -2,79</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,64; -3,49</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-68,67; -14,41</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-66,19; -22,89</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,8; -8,95</t>
         </is>
       </c>
     </row>
@@ -1004,32 +1004,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,03</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,3</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-10,24</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-21,28%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-36,54%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-26,59%</t>
         </is>
       </c>
     </row>
@@ -1042,32 +1042,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,35; 0,19</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,55; -2,1</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,36; -5,87</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-39,97; 3,91</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-50,87; -19,48</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-42,64; -16,84</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P44-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P44-Habitat-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -594,7 +594,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -604,32 +604,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,99</t>
+          <t>-0,25</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-5,37</t>
+          <t>-2,29</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-1,99</t>
+          <t>-3,16</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>50,78%</t>
+          <t>-4,4%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-35,22%</t>
+          <t>-21,06%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-7,44%</t>
+          <t>-10,2%</t>
         </is>
       </c>
     </row>
@@ -642,39 +642,39 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-5,95; 11,63</t>
+          <t>-4,26; 3,47</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-17,72; 8,24</t>
+          <t>-7,56; 2,34</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-15,53; 10,83</t>
+          <t>-8,9; 2,49</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-54,49; 94,2</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-81,23; 108,19</t>
+          <t>-55,06; 29,63</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-43,25; 62,61</t>
+          <t>-25,46; 9,13</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-0,69</t>
+          <t>0,85</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-1,53</t>
+          <t>-2,52</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-2,89</t>
+          <t>-30,47</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-11,48%</t>
+          <t>9,93%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-15,5%</t>
+          <t>-25,39%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-9,13%</t>
+          <t>-50,66%</t>
         </is>
       </c>
     </row>
@@ -722,39 +722,39 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-5,42; 3,36</t>
+          <t>-3,33; 5,48</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-7,15; 3,47</t>
+          <t>-6,31; 1,26</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-8,73; 3,78</t>
+          <t>-57,05; -4,52</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-60,12; 97,11</t>
+          <t>-30,5; 95,11</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-55,88; 56,35</t>
+          <t>-52,6; 17,7</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-24,91; 14,29</t>
+          <t>-67,18; -12,66</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,85</t>
+          <t>-2,63</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-2,52</t>
+          <t>-4,67</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-12,9</t>
+          <t>-18,97</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>9,93%</t>
+          <t>-22,56%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-25,39%</t>
+          <t>-40,59%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-30,12%</t>
+          <t>-56,76%</t>
         </is>
       </c>
     </row>
@@ -802,39 +802,39 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,33; 5,48</t>
+          <t>-9,3; 2,91</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,31; 1,26</t>
+          <t>-9,59; 0,14</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-31,97; -3,83</t>
+          <t>-32,26; -7,3</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-30,5; 95,11</t>
+          <t>-56,53; 39,97</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-52,6; 17,7</t>
+          <t>-66,62; 3,9</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-53,3; -11,27</t>
+          <t>-86,3; -22,94</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-2,63</t>
+          <t>-5,65</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-4,67</t>
+          <t>-7,19</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-15,01</t>
+          <t>-8,88</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-22,56%</t>
+          <t>-47,8%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-40,59%</t>
+          <t>-49,93%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-45,19%</t>
+          <t>-20,48%</t>
         </is>
       </c>
     </row>
@@ -882,39 +882,39 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-9,3; 2,91</t>
+          <t>-10,62; -1,58</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-9,59; 0,14</t>
+          <t>-11,47; -2,79</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-27,88; -6,99</t>
+          <t>-13,85; -3,91</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-56,53; 39,97</t>
+          <t>-68,67; -14,41</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-66,62; 3,9</t>
+          <t>-66,19; -22,89</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-75,92; -21,96</t>
+          <t>-29,87; -9,58</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -924,32 +924,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-5,65</t>
+          <t>-2,03</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-7,19</t>
+          <t>-4,3</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-8,59</t>
+          <t>-19,13</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-47,8%</t>
+          <t>-21,28%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-49,93%</t>
+          <t>-36,54%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-19,93%</t>
+          <t>-41,9%</t>
         </is>
       </c>
     </row>
@@ -962,124 +962,44 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-10,62; -1,58</t>
+          <t>-4,35; 0,19</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-11,47; -2,79</t>
+          <t>-6,55; -2,1</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-13,64; -3,49</t>
+          <t>-40,47; -7,06</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-68,67; -14,41</t>
+          <t>-39,97; 3,91</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-66,19; -22,89</t>
+          <t>-50,87; -19,48</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-29,8; -8,95</t>
+          <t>-65,91; -19,75</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>-2,03</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-4,3</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-10,24</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>-21,28%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>-36,54%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>-26,59%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-4,35; 0,19</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-6,55; -2,1</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-18,36; -5,87</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-39,97; 3,91</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-50,87; -19,48</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>-42,64; -16,84</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
@@ -1088,7 +1008,6 @@
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P44-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P44-Habitat-trans_bre.xlsx
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,26; 3,47</t>
+          <t>-4,17; 3,5</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-7,56; 2,34</t>
+          <t>-7,48; 2,75</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-8,9; 2,49</t>
+          <t>-8,89; 2,42</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-54,49; 94,2</t>
+          <t>-54,39; 97,7</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-55,06; 29,63</t>
+          <t>-52,65; 36,56</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-25,46; 9,13</t>
+          <t>-25,79; 8,54</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-3,33; 5,48</t>
+          <t>-4,19; 4,86</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-6,31; 1,26</t>
+          <t>-6,6; 1,24</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-57,05; -4,52</t>
+          <t>-56,82; -4,69</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-30,5; 95,11</t>
+          <t>-38,2; 78,87</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-52,6; 17,7</t>
+          <t>-54,84; 17,93</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-67,18; -12,66</t>
+          <t>-67,44; -12,85</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-9,3; 2,91</t>
+          <t>-9,13; 2,54</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-9,59; 0,14</t>
+          <t>-9,43; 0,16</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-32,26; -7,3</t>
+          <t>-33,92; -7,17</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-56,53; 39,97</t>
+          <t>-56,37; 32,57</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-66,62; 3,9</t>
+          <t>-66,98; 4,12</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-86,3; -22,94</t>
+          <t>-84,38; -21,46</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-10,62; -1,58</t>
+          <t>-10,1; -1,82</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-11,47; -2,79</t>
+          <t>-11,49; -2,98</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-13,85; -3,91</t>
+          <t>-14,55; -3,99</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-68,67; -14,41</t>
+          <t>-70,32; -18,87</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-66,19; -22,89</t>
+          <t>-68,16; -25,22</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-29,87; -9,58</t>
+          <t>-30,8; -9,81</t>
         </is>
       </c>
     </row>
@@ -962,32 +962,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,35; 0,19</t>
+          <t>-4,74; 0,09</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-6,55; -2,1</t>
+          <t>-6,76; -2,17</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-40,47; -7,06</t>
+          <t>-41,06; -8,19</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-39,97; 3,91</t>
+          <t>-41,63; 1,93</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-50,87; -19,48</t>
+          <t>-50,88; -19,52</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-65,91; -19,75</t>
+          <t>-66,99; -22,27</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P44-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P44-Habitat-trans_bre.xlsx
@@ -528,7 +528,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que se han realizado alguna vez una prueba para detectar el cancer de colon</t>
+          <t>Población que se ha realizado alguna vez una prueba para detectar el cancer de colon</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
